--- a/biology/Botanique/Angiosperm_Phylogeny_Group/Angiosperm_Phylogeny_Group.xlsx
+++ b/biology/Botanique/Angiosperm_Phylogeny_Group/Angiosperm_Phylogeny_Group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Angiosperm Phylogeny Group (APG) est un groupe de botanistes qui travaillent sur la phylogénétique végétale, en utilisant les techniques moléculaires et l'analyse cladistique. Ce groupe a publié quatre classifications botaniques :
 La classification APG (1998), par les auteurs : Arne Anderberg, Anders Backlund, Birgitta Bremer, Kåre Bremer, Barbara G.Biggs, Mark W. Chase, Peter K. Endress, Michael F. Fay, Peter Goldblatt, Mats H.G. Gustafsson, Sara B. Hoot, Walter S. Judd, Mari Källersjö, Elizabeth A. Kellogg, Kathleen A. Kron, Donald H. Les, Cynthia M. Morton, Daniel L. Nickrent, Richard G. Olmstead, Robert A. Price, Christopher J. Quinn, James E. Rodman, Paula J. Rudall, Peter F. Stevens, Vincent Savolainen, Douglas E. Soltis, Pamela E. Soltis, Kenneth J. Sytsma et Mats Thulin. N.B. Dans cette première liste, les noms auteurs ou contributeurs des trois versions de la classification sont soulignés, les noms absents des listes APG II et III sont indiqués en italique.
